--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-practitionerrole.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="278">
   <si>
     <t>Property</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -760,6 +760,10 @@
   </si>
   <si>
     <t>PractitionerRole.availableTime.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3650,13 +3654,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3707,7 +3711,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3725,7 +3729,7 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3736,7 +3740,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3765,7 +3769,7 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -3818,7 +3822,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3836,7 +3840,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3847,11 +3851,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3873,10 +3877,10 @@
         <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>135</v>
@@ -3931,7 +3935,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3960,7 +3964,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3986,10 +3990,10 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4016,13 +4020,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4040,7 +4044,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4069,7 +4073,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4095,10 +4099,10 @@
         <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4149,7 +4153,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4178,7 +4182,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4201,16 +4205,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4260,7 +4264,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4289,7 +4293,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4312,16 +4316,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4371,7 +4375,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4404,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4426,10 +4430,10 @@
         <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4480,7 +4484,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4509,7 +4513,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4532,13 +4536,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4589,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4607,7 +4611,7 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4618,7 +4622,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4647,7 +4651,7 @@
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -4700,7 +4704,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4718,7 +4722,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4729,11 +4733,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4755,10 +4759,10 @@
         <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>135</v>
@@ -4813,7 +4817,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4842,7 +4846,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4865,13 +4869,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4922,7 +4926,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>86</v>
@@ -4940,7 +4944,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4951,7 +4955,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4977,10 +4981,10 @@
         <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5031,7 +5035,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5060,7 +5064,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5083,13 +5087,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5140,7 +5144,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5169,7 +5173,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5192,19 +5196,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>176</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5253,7 +5257,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5271,7 +5275,7 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
